--- a/Versuch5/daten.xlsx
+++ b/Versuch5/daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc/Studium/Semester 3/Signale Systeme und Sensoren/AIN3-SSS/Versuch5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C877945-2BB2-FB4E-9B83-697F354F8A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1467E-3680-3846-969C-58386B2734B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{978A81F5-535C-064F-AEB8-613141F986F7}"/>
   </bookViews>
@@ -35,8 +35,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Keithley TRMS 179 (V)</t>
+  </si>
+  <si>
+    <t>Multimeter Voltcraft (V)</t>
+  </si>
+  <si>
+    <t>AD-Wandler (V)</t>
+  </si>
+  <si>
+    <t>PicoScope (V)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,12 +406,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8097077-4C96-1F48-B6F2-3A0958C8A3A0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.073</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.014</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.093</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.125</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.986</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.0390000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.0540000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.0609999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.536</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.085</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.0489999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.0660000000000007</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.5619999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.0359999999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4.0679999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.484</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.5780000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.976</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>